--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gal-Galr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gal-Galr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.926742666666667</v>
+        <v>0.48067</v>
       </c>
       <c r="H2">
-        <v>14.780228</v>
+        <v>1.44201</v>
       </c>
       <c r="I2">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837906</v>
       </c>
       <c r="J2">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837907</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.980289124439111</v>
+        <v>0.3883307294266667</v>
       </c>
       <c r="R2">
-        <v>35.822602119952</v>
+        <v>3.49497656484</v>
       </c>
       <c r="S2">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837906</v>
       </c>
       <c r="T2">
-        <v>0.666446655488151</v>
+        <v>0.1949338371837907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +578,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.48067</v>
+        <v>1.985141</v>
       </c>
       <c r="H3">
-        <v>1.44201</v>
+        <v>5.955423</v>
       </c>
       <c r="I3">
-        <v>0.06502083335118163</v>
+        <v>0.8050661628162092</v>
       </c>
       <c r="J3">
-        <v>0.06502083335118163</v>
+        <v>0.8050661628162094</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,78 +623,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.3883307294266667</v>
+        <v>1.603784826481333</v>
       </c>
       <c r="R3">
-        <v>3.49497656484</v>
+        <v>14.434063438332</v>
       </c>
       <c r="S3">
-        <v>0.06502083335118163</v>
+        <v>0.8050661628162092</v>
       </c>
       <c r="T3">
-        <v>0.06502083335118163</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1.985141</v>
-      </c>
-      <c r="H4">
-        <v>5.955423</v>
-      </c>
-      <c r="I4">
-        <v>0.2685325111606675</v>
-      </c>
-      <c r="J4">
-        <v>0.2685325111606675</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.8078946666666668</v>
-      </c>
-      <c r="N4">
-        <v>2.423684</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1.603784826481333</v>
-      </c>
-      <c r="R4">
-        <v>14.434063438332</v>
-      </c>
-      <c r="S4">
-        <v>0.2685325111606675</v>
-      </c>
-      <c r="T4">
-        <v>0.2685325111606675</v>
+        <v>0.8050661628162094</v>
       </c>
     </row>
   </sheetData>
